--- a/medicine/Enfance/Léo_Mattéï,_Brigade_des_mineurs/Léo_Mattéï,_Brigade_des_mineurs.xlsx
+++ b/medicine/Enfance/Léo_Mattéï,_Brigade_des_mineurs/Léo_Mattéï,_Brigade_des_mineurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léo Mattéï, Brigade des mineurs ou Léo Mattéï est une série télévisée policière française, créée par Michel Alexandre, Jean-Luc Reichmann et Nathalie Lecoultre, diffusée depuis le 12 décembre 2013 sur TF1 et rediffusée depuis le 1er janvier 2018 sur TV Breizh. Elle est également diffusée depuis le 18 août 2021 sur Disney+ STAR[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léo Mattéï, Brigade des mineurs ou Léo Mattéï est une série télévisée policière française, créée par Michel Alexandre, Jean-Luc Reichmann et Nathalie Lecoultre, diffusée depuis le 12 décembre 2013 sur TF1 et rediffusée depuis le 1er janvier 2018 sur TV Breizh. Elle est également diffusée depuis le 18 août 2021 sur Disney+ STAR.
 En 2023, la série fête ses 10 ans de diffusion.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léo Mattéï est un commandant de police, ayant intégré la brigade des mineurs à la suite de la disparition de sa fille de 8 ans, Eloïse, disparue le 7 novembre 2007 (et finalement retrouvée 8 ans plus tard). Il mène avec son équipe des enquêtes toutes plus complexes les unes que les autres afin d'aider les enfants en danger.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -556,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Saison 1
-Emmanuelle Hauck : Emmanuelle Deniard (épisode 1)
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Emmanuelle Hauck : Emmanuelle Deniard (épisode 1)
 Anne-Sophie Girard : Infirmière de Mathis (épisode 1)
 Laetitia Lacroix : Sabine Magnier (épisode 1)
 Francis Renaud : Bruno Deniard (épisode 1)
@@ -592,17 +617,85 @@
 Jean-Michel Meunier : Eric Durieux (épisode 2)
 Marie Puil : Romane Durieux (épisode 2)
 Thomas Silberstein : Quentin Laroche (épisode 2)
-Patricia Thibault : Emma Clément (épisode 2)
-Saison 2
-Patrick Ligardes : Julien Weber (épisode 1)
+Patricia Thibault : Emma Clément (épisode 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saison 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Patrick Ligardes : Julien Weber (épisode 1)
 Jeanne Bournaud : Karine Marchal (épisode 2)
 Ivàn Gonzàles : Alain Jacmin (épisode 3)
 Elsa Houben : Léa Jacmain (épisode 3)
 Jérôme Pouly : Franck Laurent (épisode 3)
 Axel Boute : Tony (épisode 4)
-Adrien Ruiz : Florian (épisode 4)
-Saison 3
-Mathieu Barbet : Juge Gauvard (épisode 1)
+Adrien Ruiz : Florian (épisode 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Saison 3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mathieu Barbet : Juge Gauvard (épisode 1)
 Raymond Acquaviva : Christian Delalande (épisode 2)
 Bruno Clairefond : Bertrand Cholet (épisode 2)
 David Seigneur : Manu Destrier (épisode 2)
@@ -619,13 +712,81 @@
 Marie Verge : Clothilde Plisson (épisode 5)
 Camille Aguilar : Zoé (épisode 6)
 Alice Pey : Mélissa (épisode 6)
-Lou Raphael : Marie Prunoy (épisode 6)
-Saison 4
-Slimane : Raphaël
+Lou Raphael : Marie Prunoy (épisode 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Slimane : Raphaël
 William Dechelette : Thomas
-Isabelle Pruvot : Sabrina
-Saison 5
-Mike Nguyen : Lieutenant Martin
+Isabelle Pruvot : Sabrina</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saison 5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mike Nguyen : Lieutenant Martin
 Fabien Baïardi : Julien Desmarais (épisode 1)
 Jeanne-Marie Lavallée : Anne Desmarais (épisode 1)
 Josef Mlekuz : Thomas Desmarais (épisode 1)
@@ -634,9 +795,43 @@
 Lilas-Rose Gilberti : Clémence Marchand (épisodes 1 et 2)
 Marie Le Cam : Sophie Marchand (épisodes 1 et 2)
 Eliott Le Corre : Kévin (épisodes 1 et 2)
-Avy Marciano : Luc Marchand (épisodes 1 et 2)
-Saison 6
-Patrick Bosso : Franck Perrier  (épisode 1)
+Avy Marciano : Luc Marchand (épisodes 1 et 2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saison 6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Patrick Bosso : Franck Perrier  (épisode 1)
 Gabriel Dryss : Hugo Delage (épisode 1)
 Marie Favasuli : Solange Mariani (épisode 1)
 Michel Sarran : Monsieur Germain (épisode 1)
@@ -657,18 +852,125 @@
 Valentin Byls : Octave Garnier (épisode 5)
 Laurence Cormerais : Mme Garnier (épisode 5)
 Esteban Durand : Dorian Perraut (épisode 6)
-Catherine Marchal : Commissaire Ansker (épisodes 5 et 6)
-Invitée spéciale
-Véronique Jannot : Dr Fabre, la psychologue d'Eloïse (épisodes 5 et 6)
-Saison 7
-Florence Pernel : Karine Legrand (épisodes 1 et 2)
+Catherine Marchal : Commissaire Ansker (épisodes 5 et 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Saison 6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Invitée spéciale</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Véronique Jannot : Dr Fabre, la psychologue d'Eloïse (épisodes 5 et 6)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Saison 7</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Florence Pernel : Karine Legrand (épisodes 1 et 2)
 Lenni-Kim : Lucas (épisodes 1 et 2)
 Catherine Marchal : Commissaire Ansker (épisodes 3)
 Jean-Luc Aubry : Lucien (épisodes 3 et 4)
 Solène Hébert : Alice Erlanger (épisodes 3 et 4)
-Sagamore Stévenin : Thierry Erlanger (épisodes 3 et 4)
-Saison 8
-Frédéric Diefenthal : Renaud Lescure (épisodes 1 et 2)
+Sagamore Stévenin : Thierry Erlanger (épisodes 3 et 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Saison 8</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Frédéric Diefenthal : Renaud Lescure (épisodes 1 et 2)
 Aurélie Vaneck : Sabrina Rocca (épisodes 1 et 2)
 Marie Dal Zotto : Claire (épisodes 3 et 4)
 Anne Girouard : Louise Roman (épisodes 3 et 4)
@@ -677,9 +979,43 @@
 Annelise Hesme : Odile (épisodes 5 et 6)
 Lou Jean : Capucine (épisodes 5 et 6)
 Clément Manuel : Philippe (épisodes 5 et 6)
-Yves Rénier : Pierre, le chef de la secte (épisodes 5 et 6)
-Saison 9
-Elsa Lunghini : Isabelle Bourdier (épisodes 1 et 2)
+Yves Rénier : Pierre, le chef de la secte (épisodes 5 et 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Saison 9</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elsa Lunghini : Isabelle Bourdier (épisodes 1 et 2)
 Franck Sémonin : Monsieur Bertrand (épisodes 1 et 2)
 Charlotte Valandrey : La directrice de l'école de danse (épisodes 1 et 2)
 Anggun : Mai-Lan Pasquier  (épisodes 3 et 4) 
@@ -688,9 +1024,43 @@
 Astrid Veillon : Marine Pasquier (épisodes 3 et 4) 
 Armelle Deutsch : Hélène (épisodes 5 et 6) 
 Zoé Félix : Nadia (épisodes 5 et 6) 
-Thomas Jouannet : Pascal (épisodes 5 et 6) 
-Saison 10
-Rebecca Benhamour : Karine Bianchi (épisodes 1 et 2)
+Thomas Jouannet : Pascal (épisodes 5 et 6) </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Saison 10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rebecca Benhamour : Karine Bianchi (épisodes 1 et 2)
 Lorie Pester : Sonia Meyer (épisodes 1 et 2)
 Firmine Richard : Agnès Moreau (épisodes 1 et 2)
 Juliette Tresanini : Blanche Lesage (épisodes 1 et 2)
@@ -702,9 +1072,43 @@
 Dembo Camilo : Eliott Bruneau  (épisodes 5 et 6) 
 Leeloo Eyme : Jade (épisodes 5 et 6)
 Aaliyah Lexilus : Nina  (épisodes 5 et 6)
-Mimie Mathy : Chantal (épisodes 5 et 6)
-Saison 11
-Alexis Loret : Franck Lemonnier (épisodes 1 et 2)
+Mimie Mathy : Chantal (épisodes 5 et 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Saison 11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Alexis Loret : Franck Lemonnier (épisodes 1 et 2)
 Lucie Lucas : Laure Lemonnier (épisodes 1 et 2)
 Jean-Baptiste Maunier : Aurélien Guichard (épisodes 1 et 2)
 Pola Petrenko : Nadia Guichard (épisodes 1 et 2)
@@ -714,37 +1118,77 @@
 Arnaud Gidoin : Julien Brasseur (épisodes 3 et 4)
 Marie-Christine Adam : Constance Rivier (épisodes 5 et 6)
 Franck Adrien : Commandant Spagnolo (épisodes 5 et 6)
-Alexandre Brasseur : Thomas Rivier (épisodes 5 et 6)
-Invitée spéciale
-Samira Lachhab : Clara Besson (épisodes 5 et 6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Alexandre Brasseur : Thomas Rivier (épisodes 5 et 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Saison 11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Invitée spéciale</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Samira Lachhab : Clara Besson (épisodes 5 et 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Production : LGM-Films-LGM, Papillonnoms, BIG BAND STORY, avec la participation de TF1
 Produit par Cyril Colbeau-Justin, Jean-Baptiste Dupont et Jean-Luc Reichmann
@@ -761,101 +1205,446 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Épisodes et diffusion en France</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Saison 1 (2013)
-Cette saison a été tournée du mardi 12 mars au mardi 9 avril 2013.
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Saison 1 (2013)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cette saison a été tournée du mardi 12 mars au mardi 9 avril 2013.
 Les yeux dans le dos 
-Alerte : disparitions
-Saison 2 (2014)
-Cette saison a été tournée du 12 mai au 7 juin pour les deux premiers épisodes, et du mardi 16 septembre au mercredi 22 octobre 2014 pour les deux épisodes suivants.
+Alerte : disparitions</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Saison 2 (2014)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison a été tournée du 12 mai au 7 juin pour les deux premiers épisodes, et du mardi 16 septembre au mercredi 22 octobre 2014 pour les deux épisodes suivants.
 Manipulations 
 Au nom du fils
 La revenante 
-Sous pression 
-Saison 3 (2015 - 2016)
-TF1 a commandé une troisième saison qui est diffusée à partir du 24 septembre 2015[2]. Ces deux épisodes ont été tournés du 2 au 29 avril 2015.
+Sous pression </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Saison 3 (2015 - 2016)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TF1 a commandé une troisième saison qui est diffusée à partir du 24 septembre 2015. Ces deux épisodes ont été tournés du 2 au 29 avril 2015.
 Secrets de famille 
 L'amour en fuite 
 La fin de l'innocence 
 Livrés à eux-mêmes
 Retour vers le passé
-Génération libérée
-Saison 4 (2016)
-Les deux premiers épisodes sont diffusés le 15 décembre 2016 sur TF1 et les deux suivants le 22 décembre 2016[3].
+Génération libérée</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Saison 4 (2016)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Les deux premiers épisodes sont diffusés le 15 décembre 2016 sur TF1 et les deux suivants le 22 décembre 2016.
 La déchirure
 Un homme en colère
 Hors de contrôle 
-Délit de naissance
-Saison 5 (2018)
-Les deux épisodes de la saison 5 sont diffusés le 1er février 2018 en France et le 28 janvier 2018 sur La Une en Belgique[4].
+Délit de naissance</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Saison 5 (2018)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Les deux épisodes de la saison 5 sont diffusés le 1er février 2018 en France et le 28 janvier 2018 sur La Une en Belgique.
 L'emprise du mal - Partie 1
-L'emprise du mal - Partie 2
-Saison 6 (2019)
-Cette sixième saison est diffusée depuis le 19 janvier 2019 en Belgique sur La Une avant une diffusion à partir du jeudi 14 février 2019 sur TF1[5].
+L'emprise du mal - Partie 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Saison 6 (2019)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cette sixième saison est diffusée depuis le 19 janvier 2019 en Belgique sur La Une avant une diffusion à partir du jeudi 14 février 2019 sur TF1.
 Question de goût
 La piste des étoiles
 Sugar daddy
 Au bout du fil
 Le revers de la médaille - Partie 1
-Le revers de la médaille - Partie 2
-Saison 7 (2020)
-Cette septième saison est diffusée à partir du 8 février 2020 en Belgique sur La Une avant une diffusion à partir du jeudi 27 février 2020 sur TF1.
+Le revers de la médaille - Partie 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Saison 7 (2020)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cette septième saison est diffusée à partir du 8 février 2020 en Belgique sur La Une avant une diffusion à partir du jeudi 27 février 2020 sur TF1.
 La part de l'ombre - Partie 1
 La part de l'ombre - Partie 2
 Les liens du sang  - Partie 1 
-Les liens du sang  - Partie 2
-Saison 8 (2021)
-Cette huitième saison est diffusée à partir du 20 février 2021 en Belgique sur La Une avant une diffusion à partir du jeudi 8 avril 2021 sur TF1.
+Les liens du sang  - Partie 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Saison 8 (2021)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cette huitième saison est diffusée à partir du 20 février 2021 en Belgique sur La Une avant une diffusion à partir du jeudi 8 avril 2021 sur TF1.
 Le silence de la mer - Partie 1
 Le silence de la mer - Partie 2
 Une erreur de jeunesse - Partie 1
 Une erreur de jeunesse - Partie 2
 Les blessures de l'enfance - Partie 1
-Les blessures de l'enfance - Partie 2
-Saison 9 (2022)
-Cette neuvième saison est diffusée à partir du 12 février 2022 en Belgique sur La Une avant une diffusion à partir du 17 février 2022 sur TF1. Elle est marquée par le départ de Xavier Mathieu, Mathilde Lebrequier, Maïra Schmitt et l’arrivée de Lola Dubini, Stomy Bugsy, Romane Portail, qui composent la nouvelle équipe du commandant Léo Mattéï.
+Les blessures de l'enfance - Partie 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Saison 9 (2022)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cette neuvième saison est diffusée à partir du 12 février 2022 en Belgique sur La Une avant une diffusion à partir du 17 février 2022 sur TF1. Elle est marquée par le départ de Xavier Mathieu, Mathilde Lebrequier, Maïra Schmitt et l’arrivée de Lola Dubini, Stomy Bugsy, Romane Portail, qui composent la nouvelle équipe du commandant Léo Mattéï.
 La cicatrice intérieure - Partie 1
 La cicatrice intérieure - Partie 2
 Le poison du secret - Partie 1
 Le poison du secret - Partie 2
 Un petit ange gardien - Partie 1
-Un petit ange gardien - Partie 2
-Saison 10 (2023)
-Cette dixième saison est diffusée à partir du 4 mars 2023 en Belgique sur La Une avant une diffusion à partir du 6 avril 2023 sur TF1.
+Un petit ange gardien - Partie 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Saison 10 (2023)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cette dixième saison est diffusée à partir du 4 mars 2023 en Belgique sur La Une avant une diffusion à partir du 6 avril 2023 sur TF1.
 La maison de l'espoir - Partie 1
 La maison de l'espoir - Partie 2
 La menace fantôme - Partie 1
 La menace fantôme - Partie 2
 Le secret de Jade - Partie 1
-Le secret de Jade - Partie 2
-Saison 11 (2024)
-Cette onzième saison est diffusée à partir du 15 février 2024 sur TF1.
-Les deux premiers épisodes ont notamment été tournés dans les communes de Marseille, Martigues, Port-de-Bouc et Saint-Zacharie[6].
+Le secret de Jade - Partie 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Épisodes et diffusion en France</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Saison 11 (2024)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cette onzième saison est diffusée à partir du 15 février 2024 sur TF1.
+Les deux premiers épisodes ont notamment été tournés dans les communes de Marseille, Martigues, Port-de-Bouc et Saint-Zacharie.
 Le mensonge - Partie 1
 Le mensonge - Partie 2 
 Je suis Vanessa - Partie 1
@@ -865,36 +1654,78 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Audiences</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Audiences
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les plus hauts chiffres d'audience
 Les plus bas chiffres d'audience
-Graphique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Graphique</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Audiences (en milliers de téléspectateurs) par saison
 Lancement
 Moyenne
@@ -905,68 +1736,110 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Autour de la série</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hommage à Yves Rénier
-Dans la nuit du 23 au 24 avril 2021, l’acteur Yves Rénier décède peu de temps après la diffusion de l’épisode « Les blessures de l'enfance » de la saison 8, dans lequel il incarnait un gourou d’une secte.
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hommage à Yves Rénier</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la nuit du 23 au 24 avril 2021, l’acteur Yves Rénier décède peu de temps après la diffusion de l’épisode « Les blessures de l'enfance » de la saison 8, dans lequel il incarnait un gourou d’une secte.
 La veille de son décès, il était au téléphone avec l’animateur et acteur Jean-Luc Reichmann, qui a posté sur les réseaux sociaux, une photo de l’épisode qu'ils ont tourné, pour lui rendre hommage.
-Hommage à Charlotte Valandrey
-La dernière apparition à l'écran sur TF1 de l’actrice Charlotte Valandrey  avant son décès est dans les épisodes 1 et 2 de la saison 9 dans le rôle de la directrice d’une école de danse.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Autour de la série</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hommage à Charlotte Valandrey</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dernière apparition à l'écran sur TF1 de l’actrice Charlotte Valandrey  avant son décès est dans les épisodes 1 et 2 de la saison 9 dans le rôle de la directrice d’une école de danse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Léo_Mattéï,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9o_Matt%C3%A9%C3%AF,_Brigade_des_mineurs</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur Allociné, la série obtient une moyenne de 2,6/5 pour 342 notes dont 43 critiques[7].
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur Allociné, la série obtient une moyenne de 2,6/5 pour 342 notes dont 43 critiques.
 </t>
         </is>
       </c>
